--- a/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
+++ b/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '19</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '20</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>8,654.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9,057.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8,362.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8,658.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>9,404.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8,658.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8,362.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9,057.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8,654.00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>9404</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>8362</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>8827</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>8,654.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9,057.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8,362.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8,658.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>9,404.00</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8,658.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8,362.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9,057.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8,654.00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>9404</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>8362</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>8827</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>60.00</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>34.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>46.00</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>44.4</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-7.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-4.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>1.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-4.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-7.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>-1.25</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2,521.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2,622.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,650.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2,835.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>2,886.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2,835.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2,650.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2,622.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2,521.00</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>2886</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>2521</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>2702.8</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>566.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>600.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>651.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>659.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>719.00</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>659.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>651.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>600.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>566.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>719</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>566</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>639</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>2,580.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2,805.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2,212.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2,054.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>2,250.00</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2,054.00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2,212.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2,805.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2,580.00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>2805</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>2054</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>2380.2</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2,936.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,979.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,825.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,080.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3,488.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,080.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,825.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2,979.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2,936.00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3488</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2825</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3061.6</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>127.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>158.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>316.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>181.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>218.00</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>181.00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>316.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>158.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>127.00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>316</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,063.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,137.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,141.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,261.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,706.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3,261.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3,141.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,137.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,063.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3706</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>3063</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3261.6</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>64.00</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>66.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>67.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>72.00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>59.2</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,991.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,070.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,075.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,234.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,642.00</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,234.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,075.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,070.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,991.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3642</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>2991</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3202.4</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2,991.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3,070.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,075.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,234.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,642.00</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,234.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,075.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,070.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2,991.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3642</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2991</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3202.4</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>547.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>570.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>715.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>704.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>245.00</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>704.00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>715.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>570.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>547.00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>715</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>245</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>556.2</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>2,444.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,500.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,360.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,530.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>3,397.00</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,530.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,360.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,500.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2,444.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>3397</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2360</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2646.2</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2,444.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,500.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,360.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,530.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>3,397.00</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2,530.00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,360.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,500.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2,444.00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>3397</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>2360</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2646.2</v>
       </c>
     </row>
     <row r="20">
@@ -1190,15 +1023,6 @@
         <is>
           <t>542.73</t>
         </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>543</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>542.73</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>542.838</v>
       </c>
     </row>
     <row r="21"/>
@@ -1217,37 +1041,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>12.52</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>9.75</v>
       </c>
     </row>
     <row r="24">
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>12.52</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>9.75</v>
       </c>
     </row>
     <row r="25"/>
@@ -1307,37 +1113,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>12.52</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>9.75</v>
       </c>
     </row>
     <row r="28">
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>12.52</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>9.75</v>
       </c>
     </row>
     <row r="29"/>
